--- a/biology/Virologie/Gemycircularvirus/Gemycircularvirus.xlsx
+++ b/biology/Virologie/Gemycircularvirus/Gemycircularvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gemycircularvirus est un genre de virus de la famille des Genomoviridae qui comprend 43  espèces. Ce sont des virus à ADN simple brin circulaire, classés dans le groupe II de la classification Baltimore, qui infectent principalement les animaux, Vertébrés (28 espèces) et Invertébrés (4 espèces), mais aussi les champignons (1 espèce : Sclerotinia gemycircularvirus 1) et les plantes (5 espèces). Certaines espèces ont été isolées des eaux usées.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Gemycircularvirus », est une combinaison dérivée de l'expression « Gemini-like myco-infecting circular virus », qui fait référence à la similitude des virions avec ceux des Geminivirus, au génome constitué d'ADN circulaire et au fait que la seule espèce acceptée lors de la création du genre (2015) infecte des champignons (mycovirus)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Gemycircularvirus », est une combinaison dérivée de l'expression « Gemini-like myco-infecting circular virus », qui fait référence à la similitude des virions avec ceux des Geminivirus, au génome constitué d'ADN circulaire et au fait que la seule espèce acceptée lors de la création du genre (2015) infecte des champignons (mycovirus).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces  et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 décembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 décembre 2020) :
 Blackbird associated gemycircularvirus 1
 Bovine associated gemycircularvirus 1
 Bromus associated gemycircularvirus 1
